--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3037726666666667</v>
+        <v>0.3037726666666666</v>
       </c>
       <c r="H2">
-        <v>0.9113180000000001</v>
+        <v>0.911318</v>
       </c>
       <c r="I2">
         <v>0.9710233102791331</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>0.4421296742295556</v>
+        <v>0.297321142772</v>
       </c>
       <c r="R2">
-        <v>3.979167068066</v>
+        <v>2.675890284948</v>
       </c>
       <c r="S2">
-        <v>0.2903435846657341</v>
+        <v>0.3708789665719145</v>
       </c>
       <c r="T2">
-        <v>0.2903435846657341</v>
+        <v>0.3708789665719145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3037726666666667</v>
+        <v>0.3037726666666666</v>
       </c>
       <c r="H3">
-        <v>0.9113180000000001</v>
+        <v>0.911318</v>
       </c>
       <c r="I3">
         <v>0.9710233102791331</v>
@@ -629,10 +629,10 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
         <v>0.03164025215711111</v>
@@ -641,10 +641,10 @@
         <v>0.284762269414</v>
       </c>
       <c r="S3">
-        <v>0.02077794087680637</v>
+        <v>0.03946811152647454</v>
       </c>
       <c r="T3">
-        <v>0.02077794087680637</v>
+        <v>0.03946811152647455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3037726666666667</v>
+        <v>0.3037726666666666</v>
       </c>
       <c r="H4">
-        <v>0.9113180000000001</v>
+        <v>0.911318</v>
       </c>
       <c r="I4">
         <v>0.9710233102791331</v>
@@ -679,34 +679,34 @@
         <v>0.9710233102791331</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>0.2143372344948889</v>
+        <v>0.09537023876044445</v>
       </c>
       <c r="R4">
-        <v>1.929035110454</v>
+        <v>0.858332148844</v>
       </c>
       <c r="S4">
-        <v>0.1407538209214957</v>
+        <v>0.1189650196532253</v>
       </c>
       <c r="T4">
-        <v>0.1407538209214957</v>
+        <v>0.1189650196532253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3037726666666667</v>
+        <v>0.3037726666666666</v>
       </c>
       <c r="H5">
-        <v>0.9113180000000001</v>
+        <v>0.911318</v>
       </c>
       <c r="I5">
         <v>0.9710233102791331</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>0.4281964320700001</v>
+        <v>0.1770957181371111</v>
       </c>
       <c r="R5">
-        <v>3.853767888630001</v>
+        <v>1.593861463234</v>
       </c>
       <c r="S5">
-        <v>0.2811937182115755</v>
+        <v>0.220909540151237</v>
       </c>
       <c r="T5">
-        <v>0.2811937182115755</v>
+        <v>0.2209095401512371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3037726666666667</v>
+        <v>0.3037726666666666</v>
       </c>
       <c r="H6">
-        <v>0.9113180000000001</v>
+        <v>0.911318</v>
       </c>
       <c r="I6">
         <v>0.9710233102791331</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.07448232391266668</v>
+        <v>0.09173924407577777</v>
       </c>
       <c r="R6">
-        <v>0.6703409152140001</v>
+        <v>0.825653196682</v>
       </c>
       <c r="S6">
-        <v>0.0489120413750151</v>
+        <v>0.1144357098849322</v>
       </c>
       <c r="T6">
-        <v>0.0489120413750151</v>
+        <v>0.1144357098849322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3037726666666667</v>
+        <v>0.3037726666666666</v>
       </c>
       <c r="H7">
-        <v>0.9113180000000001</v>
+        <v>0.911318</v>
       </c>
       <c r="I7">
         <v>0.9710233102791331</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>0.287869863794</v>
+        <v>0.08527000010888887</v>
       </c>
       <c r="R7">
-        <v>2.590828774146</v>
+        <v>0.7674300009799999</v>
       </c>
       <c r="S7">
-        <v>0.1890422042285063</v>
+        <v>0.1063659624913496</v>
       </c>
       <c r="T7">
-        <v>0.1890422042285063</v>
+        <v>0.1063659624913496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>0.01319376605166666</v>
+        <v>0.008872477530000001</v>
       </c>
       <c r="R8">
-        <v>0.118743894465</v>
+        <v>0.07985229777</v>
       </c>
       <c r="S8">
-        <v>0.008664257465544011</v>
+        <v>0.01106754557237234</v>
       </c>
       <c r="T8">
-        <v>0.008664257465544013</v>
+        <v>0.01106754557237234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.0009441892483333333</v>
@@ -1013,10 +1013,10 @@
         <v>0.008497703235000001</v>
       </c>
       <c r="S9">
-        <v>0.0006200427316751663</v>
+        <v>0.001177783488269161</v>
       </c>
       <c r="T9">
-        <v>0.0006200427316751664</v>
+        <v>0.001177783488269161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1051,34 +1051,34 @@
         <v>0.02897668972086695</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>0.006396121981666667</v>
+        <v>0.002845980923333334</v>
       </c>
       <c r="R10">
-        <v>0.057565097835</v>
+        <v>0.02561382831</v>
       </c>
       <c r="S10">
-        <v>0.004200290304767463</v>
+        <v>0.003550082089314007</v>
       </c>
       <c r="T10">
-        <v>0.004200290304767464</v>
+        <v>0.003550082089314007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>0.012777978675</v>
+        <v>0.005284783198333333</v>
       </c>
       <c r="R11">
-        <v>0.115001808075</v>
+        <v>0.047563048785</v>
       </c>
       <c r="S11">
-        <v>0.008391212690590765</v>
+        <v>0.006592248747871644</v>
       </c>
       <c r="T11">
-        <v>0.008391212690590765</v>
+        <v>0.006592248747871646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.002222656415</v>
+        <v>0.002737626978333334</v>
       </c>
       <c r="R12">
-        <v>0.020003907735</v>
+        <v>0.024638642805</v>
       </c>
       <c r="S12">
-        <v>0.001459603524997351</v>
+        <v>0.003414921169471832</v>
       </c>
       <c r="T12">
-        <v>0.001459603524997351</v>
+        <v>0.003414921169471832</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>0.008590438185</v>
+        <v>0.002544575716666666</v>
       </c>
       <c r="R13">
-        <v>0.07731394366500001</v>
+        <v>0.02290118145</v>
       </c>
       <c r="S13">
-        <v>0.005641283003292186</v>
+        <v>0.003174108653567966</v>
       </c>
       <c r="T13">
-        <v>0.005641283003292186</v>
+        <v>0.003174108653567967</v>
       </c>
     </row>
   </sheetData>
